--- a/JOBanalysis.xlsx
+++ b/JOBanalysis.xlsx
@@ -2013,16 +2013,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>长三角腹地-常州工学院2021年人才招聘启事</t>
+          <t>中国网安（含中国电科三十所）2022届校园招聘</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021-12-27</t>
+          <t>2021-09-22</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2804</v>
+        <v>6213</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -2034,16 +2034,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>超星集团秋季校园招聘</t>
+          <t>炬光科技2022校园招聘简章</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2021-12-14 14:20:14</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2005</v>
+        <v>3695</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -2055,16 +2055,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>赓续百年初心 担当育人使命-大庆师范学院2021年下半年公开招聘教师公告</t>
+          <t>四川轻化工大学2022年人才引进政策</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021-11-30 20:40</t>
+          <t>2022-01-03</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2523</v>
+        <v>3031</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
@@ -2076,16 +2076,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>行业第一，宇通集团2022年应届毕业生管培生招聘简章</t>
+          <t>长三角腹地-常州工学院2021年人才招聘启事</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021-12-16 15:50</t>
+          <t>2021-12-27</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1804</v>
+        <v>2804</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -2097,16 +2097,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>科技兴邦 强军报国-国防科技大学第六十三研究所2021-2022年文职、博士后招收</t>
+          <t>中国船舶第八研究院（扬州院区·原七二三所）诚聘人才公告</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021-12-01 16:54:29</t>
+          <t>2021-09-26 00:00:00</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2085</v>
+        <v>2793</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -2118,16 +2118,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>福州大学最新博士后招聘公告</t>
+          <t>浙江师范大学2021年专任教师招聘公告</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022-01-05 21:18</t>
+          <t>2021-09-04</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>467</v>
+        <v>2725</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -2139,16 +2139,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>福州大学博士后科研流动站2022年人才招聘计划</t>
+          <t>全国中小企业股份转让系统有限责任公司 2021年下半年招聘公告</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021-12-21</t>
+          <t>2021-12-01 09:42:32</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1667</v>
+        <v>2597</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -2160,16 +2160,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>炬光科技2022校园招聘简章</t>
+          <t>中国科学院国家空间科学中心2022年特别研究助理招聘启事</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021-12-14 14:20:14</t>
+          <t>2021-10-01 00:00:00</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3695</v>
+        <v>2586</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -2181,16 +2181,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>湘潭大学2021年诚聘海内外人才</t>
+          <t>ASM先进科技2022校园招聘补录</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022-01-04 14:36</t>
+          <t>2021-12-13</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1648</v>
+        <v>2528</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -2202,16 +2202,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>深圳大学智能物联网中心杨亚涛特聘教授团队2021年博士后招聘公告</t>
+          <t>赓续百年初心 担当育人使命-大庆师范学院2021年下半年公开招聘教师公告</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2021-11-30 20:40</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1543</v>
+        <v>2523</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
@@ -2223,16 +2223,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>海军航空大学2022年面向社会公开招考文职人员</t>
+          <t>北京工业大学先进电池材料与器件研究所（尉海军教授课题组）2021-2022年人才招聘</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021-12-08 09:15:22</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2225</v>
+        <v>2420</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -2244,16 +2244,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>浙江师范大学2021年专任教师招聘公告</t>
+          <t>中国电子科技集团公司第十一研究所</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2021-09-04</t>
+          <t>2021-11-26 15:57:59</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2725</v>
+        <v>2231</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
@@ -2265,16 +2265,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>广西电力职业技术学院2021年博士人才专项招聘公告</t>
+          <t>海军航空大学2022年面向社会公开招考文职人员</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2021-12-13</t>
+          <t>2021-12-08 09:15:22</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1526</v>
+        <v>2225</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -2286,16 +2286,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>广西师范大学2021年人才招聘公告</t>
+          <t>在浙里 职面未来-浙江建设职业技术学院2021年人才招聘公告</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2021-12-20 08:27:47</t>
+          <t>2021-12-06 14:23:59</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1649</v>
+        <v>2123</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -2307,16 +2307,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>广聚英才 共谋发展 南京工业职业技术大学2021年下半年海内外优秀人才招聘公告</t>
+          <t>科技兴邦 强军报国-国防科技大学第六十三研究所2021-2022年文职、博士后招收</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021-11-16 17:45</t>
+          <t>2021-12-01 16:54:29</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1605</v>
+        <v>2085</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2328,16 +2328,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>天津大学“生物信息测量与生物制造实验室”诚聘英才</t>
+          <t>超星集团秋季校园招聘</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021-12-23 13:25:59</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1915</v>
+        <v>2005</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -2349,16 +2349,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>在浙里 职面未来-浙江建设职业技术学院2021年人才招聘公告</t>
+          <t>天津大学“生物信息测量与生物制造实验室”诚聘英才</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2021-12-06 14:23:59</t>
+          <t>2021-12-23 13:25:59</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2123</v>
+        <v>1915</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
@@ -2370,16 +2370,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>四川轻化工大学2022年人才引进政策</t>
+          <t>中国电子科技集团公司第九研究所2021-2022年校园招聘</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2021-12-23</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3031</v>
+        <v>1860</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -2391,16 +2391,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>南方科技大学计算机科学与工程系2022年实验教学人员招聘启事</t>
+          <t>不负韶华 共筑梦想-枣庄学院2021年人才招聘启事</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021-12-14 11:11</t>
+          <t>2021-12-22 18:04</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1522</v>
+        <v>1805</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -2412,16 +2412,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>南孔圣地-衢州有礼-事业编制-衢州学院2021年下半年人才招聘公告-评聘高级职称名额充足-解决子女入学</t>
+          <t>行业第一，宇通集团2022年应届毕业生管</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2021-11-09</t>
+          <t>2021-12-16 15:50</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1564</v>
+        <v>1804</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -2433,16 +2433,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>北京工业大学先进电池材料与器件研究所（尉海军教授课题组）2021-2022年人才招聘</t>
+          <t>中国科学院国家空间科学中心2022年应届生招聘启事</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2021-10-28 00:00:00</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2420</v>
+        <v>1788</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
@@ -2454,16 +2454,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>全国中小企业股份转让系统有限责任公司 2021年下半年招聘公告</t>
+          <t>上海烟草机械有限责任公司高层次人才招聘简章</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-12-01 09:42:32</t>
+          <t>2021-11-17</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2597</v>
+        <v>1778</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
@@ -2475,16 +2475,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中山大学微电子科学与技术学院虞志益教授团队（下一代处理器研究团队）招聘科研助理公告</t>
+          <t>中山大学微电子科学与技术学院2021年人才招聘公告</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022-01-05 11:42:53</t>
+          <t>2021-11-05 14:45</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>291</v>
+        <v>1715</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
@@ -2496,16 +2496,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中山大学微电子科学与技术学院2021年人才招聘公告</t>
+          <t>中国科学院计算技术研究所2021年秋冬季博士人才视频双选会</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2021-11-05 14:45</t>
+          <t>2021-11-04</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1715</v>
+        <v>1696</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
@@ -2517,16 +2517,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>中国船舶第八研究院（扬州院区·原七二三所）诚聘人才公告</t>
+          <t>上海人工智能实验室招聘公告</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2021-09-26 00:00:00</t>
+          <t>2021-12-15 11:27:03</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2793</v>
+        <v>1689</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -2538,16 +2538,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>中国网安（含中国电科三十所）2022届校园招聘</t>
+          <t>福州大学博士后科研流动站2022年人才招聘计划</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2021-12-21</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6213</v>
+        <v>1667</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -2559,16 +2559,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中国科学院计算技术研究所2021年秋冬季博士人才视频双选会</t>
+          <t>上海交通大学微纳工程科学重点实验室2021-2022年招聘简章</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2021-11-04</t>
+          <t>2021-12-21 13:39:45</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1696</v>
+        <v>1664</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -2580,16 +2580,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中国科学院国家空间科学中心2022年特别研究助理招聘启事</t>
+          <t>广西师范大学2021年人才招聘公告</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2021-10-01 00:00:00</t>
+          <t>2021-12-20 08:27:47</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2586</v>
+        <v>1649</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -2601,16 +2601,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中国科学院国家空间科学中心2022年应届生招聘启事</t>
+          <t>湘潭大学2021年诚聘海内外人才</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2021-10-28 00:00:00</t>
+          <t>2022-01-04 14:36</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1788</v>
+        <v>1648</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -2643,16 +2643,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中国石化上海石油化工研究院2021-2022年度人才招聘</t>
+          <t>广聚英才 共谋发展 南京工业职业技术大学2021年下半年海内外优秀人才招聘公告</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021-12-15 09:47:57</t>
+          <t>2021-11-16 17:45</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1574</v>
+        <v>1605</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
@@ -2664,16 +2664,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>中国电建集团青海省电力设计院有限公司</t>
+          <t>中国石化上海石油化工研究院2021-2022年度人才招聘</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2021-10-12 15:51</t>
+          <t>2021-12-15 09:47:57</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1332</v>
+        <v>1574</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
@@ -2685,16 +2685,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>中国电子科技集团公司第十一研究所</t>
+          <t>南孔圣地-衢州有礼-事业编制-衢州学院2021年下半年人才招聘公告-评聘高级职称名额充足-解决子女入学</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2021-11-26 15:57:59</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2231</v>
+        <v>1564</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
@@ -2706,16 +2706,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中国电子科技集团公司第九研究所2021-2022年校园招聘</t>
+          <t>深圳大学智能物联网中心杨亚涛特聘教授团队2021年博士后招聘公告</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2021-12-23</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1860</v>
+        <v>1543</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
@@ -2727,16 +2727,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>不负韶华 共筑梦想-枣庄学院2021年人才招聘启事</t>
+          <t>广西电力职业技术学院2021年博士人才专项招聘公告</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2021-12-22 18:04</t>
+          <t>2021-12-13</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1805</v>
+        <v>1526</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
@@ -2748,16 +2748,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>上海烟草机械有限责任公司高层次人才招聘简章</t>
+          <t>南方科技大学计算机科学与工程系2022年实验教学人员招聘启事</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2021-11-17</t>
+          <t>2021-12-14 11:11</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1778</v>
+        <v>1522</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
@@ -2769,16 +2769,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>上海人工智能实验室招聘公告</t>
+          <t>中国电建集团青海省电力设计院有限公司</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021-12-15 11:27:03</t>
+          <t>2021-10-12 15:51</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1689</v>
+        <v>1332</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
@@ -2790,16 +2790,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>上海交通大学微纳工程科学重点实验室2021-2022年招聘简章</t>
+          <t>福州大学最新博士后招聘公告</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2021-12-21 13:39:45</t>
+          <t>2022-01-05 21:18</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1664</v>
+        <v>467</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
@@ -2811,16 +2811,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ASM先进科技2022校园招聘补录</t>
+          <t>中山大学微电子科学与技术学院虞志益教授团队（下一代处理器研究团队）招聘科研助理公告</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2021-12-13</t>
+          <t>2022-01-05 11:42:53</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2528</v>
+        <v>291</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
